--- a/data/Student Perfomance Dataset.xlsx
+++ b/data/Student Perfomance Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\github-classroom\20230821-20231128-BI2-BBIT4-2\BBT4206-R-Lab2of15-ExploratoryDataAnalysis-starfield\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE24DD6-02C8-4C8D-B790-6C96C6BAD01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC86F2B-4167-4B04-9DC1-6E871B243BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FA13E9D5-73C0-421D-BC1B-DABD66973113}"/>
   </bookViews>
